--- a/data/trans_camb/P68-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P68-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-3.83450612205406</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.473750321065592</v>
+        <v>-7.473750321065594</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-22.44163173767048</v>
+        <v>-22.47537395301163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.58444084753694</v>
+        <v>-15.20673275459803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-26.7689963604101</v>
+        <v>-26.52741293574519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.25951184122247</v>
+        <v>-10.06511300328426</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.344176995475168</v>
+        <v>-9.956740732132872</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.845381145792922</v>
+        <v>-7.119781147961844</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-15.01980737507417</v>
+        <v>-15.39546894269463</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-10.95374110417931</v>
+        <v>-10.80330125736361</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.36701719455596</v>
+        <v>-14.77491542755</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.717952976160544</v>
+        <v>-1.687753119893555</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.335637153268683</v>
+        <v>8.349890554393697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.041364070738855</v>
+        <v>-3.467258945122925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.013012355829598</v>
+        <v>6.779791132760395</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.839979361068584</v>
+        <v>7.432591012204298</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.90597550960162</v>
+        <v>15.78792906132449</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.501184102924574</v>
+        <v>-1.926822067844415</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.919432578635243</v>
+        <v>3.480785331945627</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.753533917683497</v>
+        <v>1.384092506495949</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1593301613283578</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.6431699090073957</v>
+        <v>-0.6431699090073956</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1861054715741417</v>
@@ -769,7 +769,7 @@
         <v>-0.1844865827256711</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.359578681840696</v>
+        <v>-0.3595786818406961</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7698653991362101</v>
+        <v>-0.7581089703368552</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5488531516366151</v>
+        <v>-0.5159121349241955</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8981363918646176</v>
+        <v>-0.9152197323027305</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6379204406444025</v>
+        <v>-0.611944470550167</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5552385045706452</v>
+        <v>-0.5724795227077709</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4700633531802972</v>
+        <v>-0.4339820676294429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6499381003163101</v>
+        <v>-0.6564404312424423</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4836520923879593</v>
+        <v>-0.4595490152539323</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6228963387081292</v>
+        <v>-0.6433668500421633</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.09549835005368783</v>
+        <v>-0.05090165771517526</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3805544155718865</v>
+        <v>0.3875274417730043</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.04032346780883838</v>
+        <v>-0.09245416971899606</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5915624868697149</v>
+        <v>0.7320724160637248</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7984821240433599</v>
+        <v>0.790948362276121</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.495892351022682</v>
+        <v>1.539302889335689</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07552300194848763</v>
+        <v>-0.09617581291869738</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2174121615011251</v>
+        <v>0.2082035179443972</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1408549999402951</v>
+        <v>0.08687341100791333</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.738007436150926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.720167734699254</v>
+        <v>-7.720167734699245</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.8178707171691724</v>
@@ -878,7 +878,7 @@
         <v>-3.990179749488782</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-7.502134684985101</v>
+        <v>-7.502134684985099</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.986432520274388</v>
+        <v>-9.093332899913189</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.838498550425474</v>
+        <v>-7.426014341880218</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.15333672231444</v>
+        <v>-13.97942783453157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.38529802361722</v>
+        <v>-6.869288987562672</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.07678318625745</v>
+        <v>-13.01874525748699</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-13.79684746156344</v>
+        <v>-13.17618336408042</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.113960176860199</v>
+        <v>-6.243359672069131</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.325220563154495</v>
+        <v>-8.139537977492392</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.55771790706972</v>
+        <v>-11.90896886885488</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.876284530545705</v>
+        <v>2.38885204325763</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.216571392128465</v>
+        <v>5.23560105240059</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.761905403245078</v>
+        <v>-1.053890217066003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.944773724704341</v>
+        <v>8.131177152088446</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.77615809922455</v>
+        <v>-0.06701620094068222</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.076324575421323</v>
+        <v>-0.2385251735957898</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.910677139927144</v>
+        <v>2.660181314782997</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4682125873618227</v>
+        <v>0.3906260227201241</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.476589587465136</v>
+        <v>-2.621066130979015</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.06794779352077704</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3018217024116099</v>
+        <v>-0.3018217024116095</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.03496147524206097</v>
@@ -983,7 +983,7 @@
         <v>-0.1612103969047316</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3030996561882086</v>
+        <v>-0.3030996561882085</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3096500125980471</v>
+        <v>-0.3256119525110505</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2808212940601476</v>
+        <v>-0.2638127765306454</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5212688473675853</v>
+        <v>-0.5053357727600281</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2540752307066565</v>
+        <v>-0.2598877001054584</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4596574821260984</v>
+        <v>-0.4861287642862413</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5129674179919346</v>
+        <v>-0.4926685412734709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2274252065922013</v>
+        <v>-0.2383028640538291</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3151778242186746</v>
+        <v>-0.3037029874794888</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4400960829137211</v>
+        <v>-0.4512153353559922</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1240684179584302</v>
+        <v>0.1033749395658275</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1796231021305021</v>
+        <v>0.227440844299558</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.06394222485485834</v>
+        <v>-0.03908968702952668</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3863903200427238</v>
+        <v>0.4096888365647425</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05733058488178399</v>
+        <v>0.01507020754662432</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05229179238609387</v>
+        <v>0.004951758623250856</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1269200292054418</v>
+        <v>0.1134609004291731</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02102622301044507</v>
+        <v>0.02629849743262324</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.104117441792746</v>
+        <v>-0.105484790070674</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.258524897358055</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.874400769089521</v>
+        <v>-1.874400769089515</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.506011770481076</v>
@@ -1092,7 +1092,7 @@
         <v>1.2204507066641</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.442983713429602</v>
+        <v>-1.442983713429599</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.298995394941313</v>
+        <v>-4.047157651696089</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.95212849810388</v>
+        <v>-3.260999995841977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.724140365254813</v>
+        <v>-6.973776900835905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.586770769786988</v>
+        <v>-4.361994751150752</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.349922337072848</v>
+        <v>-7.046244642797688</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.660237399017344</v>
+        <v>-7.061051588846778</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.107109233974823</v>
+        <v>-3.263060083907219</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.260909416072102</v>
+        <v>-3.490127817900436</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.532590570058718</v>
+        <v>-5.308838380709851</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.264594175279585</v>
+        <v>6.418712391792029</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.770951241430778</v>
+        <v>7.444496837118539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.582480793381642</v>
+        <v>3.809655093806334</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.659302768487759</v>
+        <v>10.40870012189824</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.275891473269642</v>
+        <v>6.403121489707118</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.073416801163417</v>
+        <v>5.32167525651705</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.283779512814141</v>
+        <v>5.529718218572902</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.39028975319871</v>
+        <v>5.307350365975361</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.27791903053529</v>
+        <v>2.571950682452766</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1003904024755944</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.08331626001979327</v>
+        <v>-0.08331626001979302</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1089630763018477</v>
@@ -1197,7 +1197,7 @@
         <v>0.05382606930576733</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.06364053946795911</v>
+        <v>-0.06364053946795899</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1690424808931705</v>
+        <v>-0.1682814412537044</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1171422393687341</v>
+        <v>-0.1286875947083947</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2764930987858055</v>
+        <v>-0.2804449840316333</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1737782279066531</v>
+        <v>-0.1688792074647568</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2739273382024823</v>
+        <v>-0.263472501755173</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2530516544989513</v>
+        <v>-0.2625546986423013</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1227561793208933</v>
+        <v>-0.1268698870464389</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1348995950972347</v>
+        <v>-0.1407872088427889</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2219697820437099</v>
+        <v>-0.2152688766634684</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3250647043432385</v>
+        <v>0.325269271752285</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.397823257038603</v>
+        <v>0.3885122781613691</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1778986678936461</v>
+        <v>0.1895213986730516</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5186764564685984</v>
+        <v>0.5369952284767501</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3273533726934965</v>
+        <v>0.3368867455415729</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2606462663323115</v>
+        <v>0.2883473549164087</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3051775641079035</v>
+        <v>0.2750653279898817</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2620391976144533</v>
+        <v>0.2507533837410095</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1112965442789689</v>
+        <v>0.1323567053121042</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.2845688807859154</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3552466083889955</v>
+        <v>0.3552466083889927</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.82128980947941</v>
+        <v>-7.222026986923678</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.222583652112212</v>
+        <v>-6.959471358665572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.301987976747423</v>
+        <v>-9.344362864290639</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-12.0052971097759</v>
+        <v>-12.19880268859723</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.417325185626709</v>
+        <v>-7.52204119244408</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.366040480226476</v>
+        <v>-1.25323091011923</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.261873967268039</v>
+        <v>-7.297565168038264</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.880041064042405</v>
+        <v>-5.247198948537153</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.314638154877045</v>
+        <v>-3.760427200074318</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.595832882155262</v>
+        <v>5.717135007121886</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.126474325722785</v>
+        <v>5.847410098349806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.663726587370885</v>
+        <v>2.102333470000735</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.8210167876583</v>
+        <v>5.346101061141392</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.343571365324356</v>
+        <v>9.103779105826574</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.86901188919054</v>
+        <v>13.43171452775317</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.141586140027743</v>
+        <v>2.906136729327334</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.558297810250894</v>
+        <v>5.008568521128445</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.69939403051551</v>
+        <v>4.685854212089392</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.01154847739263476</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.0144167465341261</v>
+        <v>0.01441674653412599</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2490445716224978</v>
+        <v>-0.2557352492696625</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2513360980173838</v>
+        <v>-0.2514258139671475</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3193288475667703</v>
+        <v>-0.3251077687998477</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4309970718603003</v>
+        <v>-0.4507537345769281</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3015440598094042</v>
+        <v>-0.2870004186988028</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08215339938211845</v>
+        <v>-0.04363687012394652</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2648712259770712</v>
+        <v>-0.2727226489121715</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2133114660025577</v>
+        <v>-0.1921771681715944</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1520550600942496</v>
+        <v>-0.1408240345719781</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2512372876444544</v>
+        <v>0.2480672448498422</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.267834305204616</v>
+        <v>0.2555822807318646</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1180115391648038</v>
+        <v>0.09068330084709764</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3066805918313591</v>
+        <v>0.3481698475543962</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.54858043682436</v>
+        <v>0.5158695036998244</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8029191338187269</v>
+        <v>0.8292781410387642</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1479332855796476</v>
+        <v>0.1300900662439661</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2060627258284335</v>
+        <v>0.2311214977584889</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2159183917299816</v>
+        <v>0.2136290209819511</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.7127254946436179</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-5.90420094209188</v>
+        <v>-5.904200942091887</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>13.63661381796314</v>
@@ -1520,7 +1520,7 @@
         <v>2.015345311230998</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.188746840241665</v>
+        <v>-2.188746840241654</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.68218425066256</v>
+        <v>-10.63600618563933</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.00930808810288</v>
+        <v>-10.84964883503884</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.64923319787961</v>
+        <v>-14.46604401793229</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.765462433794995</v>
+        <v>-3.108447548681705</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.158691756808377</v>
+        <v>-6.518856757045531</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.147260405434174</v>
+        <v>-6.291919248462051</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.937766763754594</v>
+        <v>-4.956925461822784</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.960713108522058</v>
+        <v>-6.59329584751325</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.985523430698377</v>
+        <v>-8.982591237625591</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.3936598555331</v>
+        <v>8.892602708662261</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.852879772885876</v>
+        <v>9.375376441750429</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.276277790898763</v>
+        <v>1.946545329703846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29.82128096870027</v>
+        <v>28.06738635727657</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>21.98348100925856</v>
+        <v>21.22850820831863</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.41921231343394</v>
+        <v>15.89514091648008</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.13122076979878</v>
+        <v>12.16932951336729</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.12583792880857</v>
+        <v>10.44914582890175</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.321143663292962</v>
+        <v>4.06115028029311</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.02534294168049449</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.209940322424097</v>
+        <v>-0.2099403224240972</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6302628193804498</v>
@@ -1625,7 +1625,7 @@
         <v>0.07665906061064255</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.08325485253192247</v>
+        <v>-0.08325485253192205</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3188390100816177</v>
+        <v>-0.3279102477629355</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3202772852620075</v>
+        <v>-0.3318662384107341</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4154445174592923</v>
+        <v>-0.4186791210102546</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0883590889235904</v>
+        <v>-0.1338354985319445</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.218990609495809</v>
+        <v>-0.2311701961624458</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2443452392835021</v>
+        <v>-0.2021377300107927</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1313597218618296</v>
+        <v>-0.1569145117103701</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2015360454334634</v>
+        <v>-0.2168294352417657</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2819447500532286</v>
+        <v>-0.2880126745708166</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.404372759244103</v>
+        <v>0.3939233078740464</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4159944402944481</v>
+        <v>0.4267999663719302</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.09966437649399054</v>
+        <v>0.08991610372895059</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.234970912974924</v>
+        <v>1.975440841574711</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.534598715171717</v>
+        <v>1.499271516323767</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.209152875286714</v>
+        <v>1.229584044202877</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5633845761490036</v>
+        <v>0.5444979596330713</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4579549064209889</v>
+        <v>0.4706450468228093</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2133998918645072</v>
+        <v>0.1785307539626195</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.1786296277052513</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-4.744447933474744</v>
+        <v>-4.744447933474741</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.191461897926829</v>
@@ -1725,7 +1725,7 @@
         <v>-0.5623598191194429</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.588665353963242</v>
+        <v>1.588665353963239</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.6228294292481229</v>
@@ -1734,7 +1734,7 @@
         <v>-0.5817337922000093</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.261303202538803</v>
+        <v>-2.261303202538806</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.498027604690147</v>
+        <v>-4.521685258020703</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.401208965938255</v>
+        <v>-3.3055572936002</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.685397270383568</v>
+        <v>-7.900614029270615</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.039050241301536</v>
+        <v>-2.467397369093301</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.631801759314878</v>
+        <v>-3.880461796596526</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.724629367250231</v>
+        <v>-1.622115839389784</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.109008055874723</v>
+        <v>-3.053078114973568</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.905153114258415</v>
+        <v>-2.825840752118401</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.35497379884845</v>
+        <v>-4.341904874323502</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.876998807748121</v>
+        <v>1.38433610368157</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.935212762055873</v>
+        <v>2.719145433407454</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.595789317248758</v>
+        <v>-1.979851936646794</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.974249893606736</v>
+        <v>5.097832329358718</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.104077296130781</v>
+        <v>3.172133949913142</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.52221109846598</v>
+        <v>4.555828461766763</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.847229051966027</v>
+        <v>1.838910909706842</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.726367782324941</v>
+        <v>2.008092309753096</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.009560716082666362</v>
+        <v>-0.06898602845561007</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.007154510181250977</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1900255936292383</v>
+        <v>-0.1900255936292382</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.05509327969629094</v>
@@ -1830,7 +1830,7 @@
         <v>-0.02600355652045009</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07345999468551957</v>
+        <v>0.07345999468551945</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.02617232223081001</v>
@@ -1839,7 +1839,7 @@
         <v>-0.02444541562589562</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.09502369878355672</v>
+        <v>-0.09502369878355683</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1747461198360314</v>
+        <v>-0.1737886595580145</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1272820001154015</v>
+        <v>-0.1262088022253282</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2943429557927717</v>
+        <v>-0.2956780996209284</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.12972714333697</v>
+        <v>-0.1052375136216352</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1924681704710624</v>
+        <v>-0.1668786603009624</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.07394088575127858</v>
+        <v>-0.06677395505462536</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1237619892310093</v>
+        <v>-0.1216909183188075</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1170552366923699</v>
+        <v>-0.113168376616832</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1753215036798544</v>
+        <v>-0.1754098792793797</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.0788603360235781</v>
+        <v>0.05771317461410497</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1253857827535876</v>
+        <v>0.1151041624099488</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.07010958090549885</v>
+        <v>-0.08304010193079538</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2444281489259325</v>
+        <v>0.2542705289009474</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1576505261511578</v>
+        <v>0.1623221037189918</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.227612330734175</v>
+        <v>0.2360677025719432</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0802009219486345</v>
+        <v>0.07889675251956675</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.0810794233963229</v>
+        <v>0.08760509576861079</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.0004978657488548463</v>
+        <v>-0.003900328480874841</v>
       </c>
     </row>
     <row r="40">
